--- a/WeekCourseRecordsParse/Template/匯入課程週課表樣板.xlsx
+++ b/WeekCourseRecordsParse/Template/匯入課程週課表樣板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\T\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ischoolProjectGit\SHDataParse\WeekCourseRecordsParse\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="無法解析" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>課程系統編號</t>
   </si>
@@ -51,6 +52,26 @@
   </si>
   <si>
     <t>授課教師1</t>
+  </si>
+  <si>
+    <t>課程名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科目名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>節次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授課教師</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -434,4 +455,38 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/WeekCourseRecordsParse/Template/匯入課程週課表樣板.xlsx
+++ b/WeekCourseRecordsParse/Template/匯入課程週課表樣板.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>課程系統編號</t>
   </si>
@@ -71,6 +71,10 @@
   </si>
   <si>
     <t>授課教師</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班級</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +463,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -468,7 +472,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -476,12 +480,15 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/WeekCourseRecordsParse/Template/匯入課程週課表樣板.xlsx
+++ b/WeekCourseRecordsParse/Template/匯入課程週課表樣板.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ischoolProjectGit\SHDataParse\WeekCourseRecordsParse\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myCodes\c#\1Campus\GitSources\SHDataParse\WeekCourseRecordsParse\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8C7BE1-F053-41CE-9A82-43D3F80397C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>課程系統編號</t>
   </si>
@@ -49,9 +50,6 @@
   </si>
   <si>
     <t>班級</t>
-  </si>
-  <si>
-    <t>授課教師1</t>
   </si>
   <si>
     <t>課程名稱</t>
@@ -81,7 +79,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -407,12 +405,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -452,7 +450,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -462,7 +460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -474,22 +472,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
